--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_14 2.类和对象(3).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_14 2.类和对象(3).xlsx
@@ -16,7 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>C语言中结构体其实也能作为参数传递，它会完成基本的浅拷贝工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是正如之前的研究中所强调的，这样的浅拷贝，涉及指针的话是会对原有数据产生影响的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设我用struct实现了一个stack，我将st1传给func2的参数st2，在func2内部对st2的修改实际上会影响到原有的st1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以在这种缺陷的基础上，C++才采用了传值传参使用拷贝构造的方式，来解决该问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,6 +91,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>455231</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="409575"/>
+          <a:ext cx="15752381" cy="6228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>283794</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>37258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="6848475"/>
+          <a:ext cx="15647619" cy="6733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370692</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>103998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="14458950"/>
+          <a:ext cx="6266667" cy="6219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,17 +499,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G81:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33:T34"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="R117" sqref="R117:S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_14 2.类和对象(3).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_14 2.类和对象(3).xlsx
@@ -502,7 +502,7 @@
   <dimension ref="G81:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R117" sqref="R117:S117"/>
+      <selection activeCell="V117" sqref="V117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
